--- a/biology/Biologie cellulaire et moléculaire/Luteoxanthine/Luteoxanthine.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Luteoxanthine/Luteoxanthine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La lutéoxanthine est un xanthophylle (sous-catégorie des caroténoïdes). C'est un composé chimique d'origine naturelle qui se retrouve dans divers organismes vivants, en particulier dans les plantes.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La lutéoxanthine se retrouve à l'état naturel dans plusieurs espèces[1] de fruits. Elle le serait aussi chez Microchloropsis salina (famille des Monodopsidaceae) et Nephroma laevigatum (champignons ascomycètes)[source insuffisante]. Sa présence est attestée dans le colza (Brassica napus) et le rosier jaune de Perse (Rosa foetida)[2],[3], et dans les agrumes[4]. Outre le bêta-carotène bien connu et largement exploré, d'autres caroténoïdes tels la lutéine, la lutéoxanthine, l'astaxanthine, et la canthaxanthine sont considérés comme des produits fonctionnels de grande valeur ayant des applications étendues en santé humaine[5].
-Sa masse moléculaire est de 600,9 g/mol[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La lutéoxanthine se retrouve à l'état naturel dans plusieurs espèces de fruits. Elle le serait aussi chez Microchloropsis salina (famille des Monodopsidaceae) et Nephroma laevigatum (champignons ascomycètes)[source insuffisante]. Sa présence est attestée dans le colza (Brassica napus) et le rosier jaune de Perse (Rosa foetida) et dans les agrumes. Outre le bêta-carotène bien connu et largement exploré, d'autres caroténoïdes tels la lutéine, la lutéoxanthine, l'astaxanthine, et la canthaxanthine sont considérés comme des produits fonctionnels de grande valeur ayant des applications étendues en santé humaine.
+Sa masse moléculaire est de 600,9 g/mol.
 </t>
         </is>
       </c>
